--- a/public/Capacity Estimates Data.xlsx
+++ b/public/Capacity Estimates Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moyuzhanglaptop/Desktop/IRP-毕设相关/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moyuzhanglaptop/前端/my_irp/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5490C0-A7F4-C14E-A172-EB68359F8C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAFDFC4-490D-FF46-87BE-F384845F2847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="17520" xr2:uid="{17BA39F0-B877-F046-886A-9FDF553D753D}"/>
+    <workbookView xWindow="3720" yWindow="-19060" windowWidth="24460" windowHeight="15840" xr2:uid="{17BA39F0-B877-F046-886A-9FDF553D753D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4247,13 +4247,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF5AD722-1392-3246-996E-4E0FE911C0AE}">
-  <dimension ref="A1:BD768"/>
+  <dimension ref="A1:BD767"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C752" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="E772" sqref="E772"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -58646,280 +58646,7 @@
       </c>
     </row>
     <row r="767" spans="1:56">
-      <c r="G767">
-        <f t="shared" ref="G767:BB767" si="12">COUNT(G2:G766)</f>
-        <v>248</v>
-      </c>
-      <c r="H767">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I767">
-        <f t="shared" si="12"/>
-        <v>248</v>
-      </c>
-      <c r="J767">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K767">
-        <f t="shared" si="12"/>
-        <v>247</v>
-      </c>
-      <c r="L767">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="M767">
-        <f t="shared" si="12"/>
-        <v>247</v>
-      </c>
-      <c r="N767">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O767">
-        <f t="shared" si="12"/>
-        <v>246</v>
-      </c>
-      <c r="P767">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Q767">
-        <f t="shared" si="12"/>
-        <v>220</v>
-      </c>
-      <c r="R767">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="S767">
-        <f t="shared" si="12"/>
-        <v>247</v>
-      </c>
-      <c r="T767">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="U767">
-        <f t="shared" si="12"/>
-        <v>220</v>
-      </c>
-      <c r="V767">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W767">
-        <f t="shared" si="12"/>
-        <v>142</v>
-      </c>
-      <c r="X767">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Y767">
-        <f t="shared" si="12"/>
-        <v>229</v>
-      </c>
-      <c r="Z767">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AA767">
-        <f t="shared" si="12"/>
-        <v>127</v>
-      </c>
-      <c r="AB767">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AC767">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="AD767">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE767">
-        <f t="shared" si="12"/>
-        <v>248</v>
-      </c>
-      <c r="AF767">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AG767">
-        <f t="shared" si="12"/>
-        <v>248</v>
-      </c>
-      <c r="AH767">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AI767">
-        <f t="shared" si="12"/>
-        <v>247</v>
-      </c>
-      <c r="AJ767">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AK767">
-        <f t="shared" si="12"/>
-        <v>247</v>
-      </c>
-      <c r="AL767">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AM767">
-        <f t="shared" si="12"/>
-        <v>246</v>
-      </c>
-      <c r="AN767">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AO767">
-        <f t="shared" si="12"/>
-        <v>220</v>
-      </c>
-      <c r="AP767">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AQ767">
-        <f t="shared" si="12"/>
-        <v>244</v>
-      </c>
-      <c r="AR767">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AS767">
-        <f t="shared" si="12"/>
-        <v>217</v>
-      </c>
-      <c r="AT767">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AU767">
-        <f t="shared" si="12"/>
-        <v>142</v>
-      </c>
-      <c r="AV767">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AW767">
-        <f t="shared" si="12"/>
-        <v>213</v>
-      </c>
-      <c r="AX767">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AY767">
-        <f t="shared" si="12"/>
-        <v>116</v>
-      </c>
-      <c r="AZ767">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BA767">
-        <f t="shared" si="12"/>
-        <v>16</v>
-      </c>
-      <c r="BB767">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="768" spans="1:56">
-      <c r="G768">
-        <f>G767*4</f>
-        <v>992</v>
-      </c>
-      <c r="H768">
-        <f>H767*4</f>
-        <v>0</v>
-      </c>
-      <c r="I768">
-        <f>I767*4</f>
-        <v>992</v>
-      </c>
-      <c r="J768">
-        <f>J767*4</f>
-        <v>0</v>
-      </c>
-      <c r="K768">
-        <f>K767*4</f>
-        <v>988</v>
-      </c>
-      <c r="M768">
-        <f>M767*25</f>
-        <v>6175</v>
-      </c>
-      <c r="N768">
-        <f>N767*25</f>
-        <v>0</v>
-      </c>
-      <c r="O768">
-        <f>O767*25</f>
-        <v>6150</v>
-      </c>
-      <c r="P768">
-        <f>P767*25</f>
-        <v>0</v>
-      </c>
-      <c r="Q768">
-        <f>Q767*25</f>
-        <v>5500</v>
-      </c>
-      <c r="S768">
-        <f>S767*100</f>
-        <v>24700</v>
-      </c>
-      <c r="T768">
-        <f>T767*100</f>
-        <v>0</v>
-      </c>
-      <c r="U768">
-        <f>U767*100</f>
-        <v>22000</v>
-      </c>
-      <c r="V768">
-        <f>V767*100</f>
-        <v>0</v>
-      </c>
-      <c r="W768">
-        <f>W767*100</f>
-        <v>14200</v>
-      </c>
-      <c r="Y768">
-        <f>Y767*400</f>
-        <v>91600</v>
-      </c>
-      <c r="Z768">
-        <f>Z767*400</f>
-        <v>0</v>
-      </c>
-      <c r="AA768">
-        <f>AA767*400</f>
-        <v>50800</v>
-      </c>
-      <c r="AB768">
-        <f>AB767*400</f>
-        <v>0</v>
-      </c>
-      <c r="AC768">
-        <f>AC767*400</f>
-        <v>8000</v>
-      </c>
+      <c r="AE767"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:BD768" xr:uid="{EF5AD722-1392-3246-996E-4E0FE911C0AE}"/>

--- a/public/Capacity Estimates Data.xlsx
+++ b/public/Capacity Estimates Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moyuzhanglaptop/前端/my_irp/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A5D1D3-50F7-904B-90E2-76DCF91FF224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0525DD0F-1CD1-574F-9E43-C6D7869C2CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6560" yWindow="-19140" windowWidth="24460" windowHeight="15840" xr2:uid="{17BA39F0-B877-F046-886A-9FDF553D753D}"/>
   </bookViews>
@@ -4266,10 +4266,10 @@
   <dimension ref="A1:BF767"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AY2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B760" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BF1" sqref="BF1"/>
+      <selection pane="bottomRight" activeCell="A768" sqref="A768:XFD768"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -63259,12 +63259,8 @@
       </c>
     </row>
     <row r="767" spans="1:58">
-      <c r="E767" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F767" s="1" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="E767" s="1"/>
+      <c r="F767" s="1"/>
       <c r="AG767"/>
     </row>
   </sheetData>
